--- a/Cleaned 2024 data.xlsx
+++ b/Cleaned 2024 data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\Desktop\LAST SEM\FINAL YEAR PROJECT\RESEARCH METHODOLOGY\Methodology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABF0D6-6DBF-46C9-A7A2-0D199F53A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE523F3-AD6F-4BD9-9B4A-BC1FE119E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3F64D119-1A68-49E6-B319-F7EFCCD32DCB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Socio-Demographic Characteristics by Region, Educational_attainment, Locality and Sex</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Tertiary</t>
+  </si>
+  <si>
+    <t>Education level</t>
+  </si>
+  <si>
+    <t>Locality</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +102,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,19 +132,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,203 +480,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BEF6ED-CE96-4869-8C4A-76AC37CD2080}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>66.976652776630559</v>
+      </c>
+      <c r="F2" s="2">
+        <v>33.023347223369441</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>65.337094141449697</v>
+      </c>
+      <c r="F3" s="2">
+        <v>34.662905858550289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>66.976652776630559</v>
+        <v>17.344648538413118</v>
       </c>
       <c r="F4" s="2">
-        <v>33.023347223369441</v>
+        <v>12.836842869797287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>65.337094141449697</v>
+        <v>27.291661542802924</v>
       </c>
       <c r="F5" s="2">
-        <v>34.662905858550289</v>
+        <v>18.957173991742273</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>17.344648538413118</v>
+        <v>31.176532579872458</v>
       </c>
       <c r="F6" s="2">
-        <v>12.836842869797287</v>
+        <v>16.251342244603251</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>27.291661542802924</v>
+        <v>29.832882217582341</v>
       </c>
       <c r="F7" s="2">
-        <v>18.957173991742273</v>
+        <v>13.998740931839885</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>31.176532579872458</v>
+        <v>10.996721647663996</v>
       </c>
       <c r="F8" s="2">
-        <v>16.251342244603251</v>
+        <v>2.8337382615903</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>29.832882217582341</v>
+        <v>5.9593016357098998</v>
       </c>
       <c r="F9" s="2">
-        <v>13.998740931839885</v>
+        <v>1.4197525270895981</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>10.996721647663996</v>
+        <v>7.4587500106809905</v>
       </c>
       <c r="F10" s="2">
-        <v>2.8337382615903</v>
+        <v>1.1014238473786</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>5.9593016357098998</v>
+        <v>2.2532487453545436</v>
       </c>
       <c r="F11" s="2">
-        <v>1.4197525270895981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7.4587500106809905</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.1014238473786</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.2532487453545436</v>
-      </c>
-      <c r="F13" s="2">
         <v>0.28723840787853916</v>
       </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A2:C3"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cleaned 2024 data.xlsx
+++ b/Cleaned 2024 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nana Dom\IdeaProjects\A-Comparative-Statistical-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE523F3-AD6F-4BD9-9B4A-BC1FE119E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34039321-BCC7-4B4E-B0EA-3F1532E72049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3F64D119-1A68-49E6-B319-F7EFCCD32DCB}"/>
   </bookViews>
@@ -132,20 +132,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,204 +486,197 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2">
+        <v>66.976652776630559</v>
+      </c>
       <c r="E2" s="2">
-        <v>66.976652776630559</v>
-      </c>
-      <c r="F2" s="2">
         <v>33.023347223369441</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="2">
+        <v>65.337094141449697</v>
+      </c>
       <c r="E3" s="2">
-        <v>65.337094141449697</v>
-      </c>
-      <c r="F3" s="2">
         <v>34.662905858550289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="2">
+        <v>17.344648538413118</v>
+      </c>
       <c r="E4" s="2">
-        <v>17.344648538413118</v>
-      </c>
-      <c r="F4" s="2">
         <v>12.836842869797287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="2">
+        <v>27.291661542802924</v>
+      </c>
       <c r="E5" s="2">
-        <v>27.291661542802924</v>
-      </c>
-      <c r="F5" s="2">
         <v>18.957173991742273</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="2">
+        <v>31.176532579872458</v>
+      </c>
       <c r="E6" s="2">
-        <v>31.176532579872458</v>
-      </c>
-      <c r="F6" s="2">
         <v>16.251342244603251</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="2">
+        <v>29.832882217582341</v>
+      </c>
       <c r="E7" s="2">
-        <v>29.832882217582341</v>
-      </c>
-      <c r="F7" s="2">
         <v>13.998740931839885</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="2">
+        <v>10.996721647663996</v>
+      </c>
       <c r="E8" s="2">
-        <v>10.996721647663996</v>
-      </c>
-      <c r="F8" s="2">
         <v>2.8337382615903</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="2">
+        <v>5.9593016357098998</v>
+      </c>
       <c r="E9" s="2">
-        <v>5.9593016357098998</v>
-      </c>
-      <c r="F9" s="2">
         <v>1.4197525270895981</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D10" s="2">
+        <v>7.4587500106809905</v>
+      </c>
       <c r="E10" s="2">
-        <v>7.4587500106809905</v>
-      </c>
-      <c r="F10" s="2">
         <v>1.1014238473786</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D11" s="2">
+        <v>2.2532487453545436</v>
+      </c>
       <c r="E11" s="2">
-        <v>2.2532487453545436</v>
-      </c>
-      <c r="F11" s="2">
         <v>0.28723840787853916</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
